--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C3-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C3-Nrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H2">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I2">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J2">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N2">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O2">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P2">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q2">
-        <v>61.28106060042067</v>
+        <v>171.328694161771</v>
       </c>
       <c r="R2">
-        <v>551.529545403786</v>
+        <v>1541.958247455939</v>
       </c>
       <c r="S2">
-        <v>0.0008344572624087099</v>
+        <v>0.001905014349394519</v>
       </c>
       <c r="T2">
-        <v>0.0008344572624087096</v>
+        <v>0.001905014349394518</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H3">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I3">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J3">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>104.738514</v>
       </c>
       <c r="O3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q3">
-        <v>21.96159489074534</v>
+        <v>64.83876113291801</v>
       </c>
       <c r="R3">
-        <v>197.654354016708</v>
+        <v>583.5488501962622</v>
       </c>
       <c r="S3">
-        <v>0.000299048550581624</v>
+        <v>0.000720946196196092</v>
       </c>
       <c r="T3">
-        <v>0.0002990485505816239</v>
+        <v>0.000720946196196092</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H4">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I4">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J4">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N4">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q4">
-        <v>31.72075510284866</v>
+        <v>78.40515076005235</v>
       </c>
       <c r="R4">
-        <v>285.486795925638</v>
+        <v>705.6463568404712</v>
       </c>
       <c r="S4">
-        <v>0.0004319379300115852</v>
+        <v>0.0008717917217258987</v>
       </c>
       <c r="T4">
-        <v>0.0004319379300115851</v>
+        <v>0.0008717917217258987</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H5">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I5">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J5">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N5">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O5">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P5">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q5">
-        <v>10.07602414128045</v>
+        <v>25.35318629775567</v>
       </c>
       <c r="R5">
-        <v>90.68421727152401</v>
+        <v>228.178676679801</v>
       </c>
       <c r="S5">
-        <v>0.0001372040796702405</v>
+        <v>0.0002819036468841186</v>
       </c>
       <c r="T5">
-        <v>0.0001372040796702404</v>
+        <v>0.0002819036468841185</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H6">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I6">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J6">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N6">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O6">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P6">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q6">
-        <v>12.33507356457467</v>
+        <v>33.76022790347334</v>
       </c>
       <c r="R6">
-        <v>111.015662081172</v>
+        <v>303.8420511312601</v>
       </c>
       <c r="S6">
-        <v>0.0001679652998406879</v>
+        <v>0.0003753820625879516</v>
       </c>
       <c r="T6">
-        <v>0.0001679652998406879</v>
+        <v>0.0003753820625879515</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H7">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I7">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J7">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N7">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O7">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P7">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q7">
-        <v>40.18564212686201</v>
+        <v>226.4754080879587</v>
       </c>
       <c r="R7">
-        <v>361.670779141758</v>
+        <v>2038.278672791628</v>
       </c>
       <c r="S7">
-        <v>0.0005472033380095775</v>
+        <v>0.002518194073114046</v>
       </c>
       <c r="T7">
-        <v>0.0005472033380095774</v>
+        <v>0.002518194073114046</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>248.636413</v>
       </c>
       <c r="I8">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J8">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N8">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O8">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P8">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q8">
-        <v>8074.042426787574</v>
+        <v>7645.819247829848</v>
       </c>
       <c r="R8">
-        <v>72666.38184108816</v>
+        <v>68812.37323046863</v>
       </c>
       <c r="S8">
-        <v>0.1099433213788517</v>
+        <v>0.08501433721452292</v>
       </c>
       <c r="T8">
-        <v>0.1099433213788517</v>
+        <v>0.08501433721452291</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>248.636413</v>
       </c>
       <c r="I9">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J9">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>104.738514</v>
       </c>
       <c r="O9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q9">
         <v>2893.534269323365</v>
@@ -1013,10 +1013,10 @@
         <v>26041.80842391029</v>
       </c>
       <c r="S9">
-        <v>0.03940092846645</v>
+        <v>0.03217338654505283</v>
       </c>
       <c r="T9">
-        <v>0.03940092846644998</v>
+        <v>0.03217338654505283</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>248.636413</v>
       </c>
       <c r="I10">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J10">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N10">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q10">
-        <v>4179.345461726236</v>
+        <v>3498.956282502098</v>
       </c>
       <c r="R10">
-        <v>37614.10915553613</v>
+        <v>31490.60654251889</v>
       </c>
       <c r="S10">
-        <v>0.05690967386142793</v>
+        <v>0.03890511136317235</v>
       </c>
       <c r="T10">
-        <v>0.05690967386142791</v>
+        <v>0.03890511136317235</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>248.636413</v>
       </c>
       <c r="I11">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J11">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N11">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O11">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P11">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q11">
-        <v>1327.559373368216</v>
+        <v>1131.426821044723</v>
       </c>
       <c r="R11">
-        <v>11948.03436031395</v>
+        <v>10182.84138940251</v>
       </c>
       <c r="S11">
-        <v>0.01807722564740108</v>
+        <v>0.01258040481733245</v>
       </c>
       <c r="T11">
-        <v>0.01807722564740107</v>
+        <v>0.01258040481733245</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>248.636413</v>
       </c>
       <c r="I12">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J12">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N12">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O12">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P12">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q12">
-        <v>1625.198818723416</v>
+        <v>1506.604609218429</v>
       </c>
       <c r="R12">
-        <v>14626.78936851074</v>
+        <v>13559.44148296586</v>
       </c>
       <c r="S12">
-        <v>0.02213014826855822</v>
+        <v>0.01675202985388446</v>
       </c>
       <c r="T12">
-        <v>0.02213014826855821</v>
+        <v>0.01675202985388446</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>248.636413</v>
       </c>
       <c r="I13">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J13">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N13">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O13">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P13">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q13">
-        <v>5294.630613455123</v>
+        <v>10106.83028193772</v>
       </c>
       <c r="R13">
-        <v>47651.67552109611</v>
+        <v>90961.47253743951</v>
       </c>
       <c r="S13">
-        <v>0.0720963854718073</v>
+        <v>0.1123784711497704</v>
       </c>
       <c r="T13">
-        <v>0.07209638547180727</v>
+        <v>0.1123784711497704</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H14">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I14">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J14">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N14">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O14">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P14">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q14">
-        <v>3996.21467600505</v>
+        <v>5512.813486968998</v>
       </c>
       <c r="R14">
-        <v>35965.93208404545</v>
+        <v>49615.32138272098</v>
       </c>
       <c r="S14">
-        <v>0.05441600269094873</v>
+        <v>0.06129731420409617</v>
       </c>
       <c r="T14">
-        <v>0.05441600269094871</v>
+        <v>0.06129731420409616</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H15">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I15">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J15">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>104.738514</v>
       </c>
       <c r="O15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q15">
-        <v>1432.143095288915</v>
+        <v>2086.305499500323</v>
       </c>
       <c r="R15">
-        <v>12889.28785760023</v>
+        <v>18776.74949550291</v>
       </c>
       <c r="S15">
-        <v>0.01950133034518858</v>
+        <v>0.02319775991531278</v>
       </c>
       <c r="T15">
-        <v>0.01950133034518858</v>
+        <v>0.02319775991531278</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H16">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I16">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J16">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N16">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q16">
-        <v>2068.550149654161</v>
+        <v>2522.82885054697</v>
       </c>
       <c r="R16">
-        <v>18616.95134688745</v>
+        <v>22705.45965492274</v>
       </c>
       <c r="S16">
-        <v>0.02816721313442297</v>
+        <v>0.02805149006050639</v>
       </c>
       <c r="T16">
-        <v>0.02816721313442296</v>
+        <v>0.02805149006050639</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H17">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I17">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J17">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N17">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O17">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P17">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q17">
-        <v>657.0701478506995</v>
+        <v>815.7850501558991</v>
       </c>
       <c r="R17">
-        <v>5913.631330656296</v>
+        <v>7342.065451403092</v>
       </c>
       <c r="S17">
-        <v>0.008947249793229219</v>
+        <v>0.009070764440083387</v>
       </c>
       <c r="T17">
-        <v>0.008947249793229218</v>
+        <v>0.009070764440083387</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H18">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I18">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J18">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N18">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O18">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P18">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q18">
-        <v>804.3855887183654</v>
+        <v>1086.296960471102</v>
       </c>
       <c r="R18">
-        <v>7239.470298465289</v>
+        <v>9776.672644239921</v>
       </c>
       <c r="S18">
-        <v>0.01095322746875465</v>
+        <v>0.01207860310571872</v>
       </c>
       <c r="T18">
-        <v>0.01095322746875464</v>
+        <v>0.01207860310571872</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H19">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I19">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J19">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N19">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O19">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P19">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q19">
-        <v>2620.556029197548</v>
+        <v>7287.259675225442</v>
       </c>
       <c r="R19">
-        <v>23585.00426277793</v>
+        <v>65585.33707702898</v>
       </c>
       <c r="S19">
-        <v>0.03568381468413774</v>
+        <v>0.08102749114494859</v>
       </c>
       <c r="T19">
-        <v>0.03568381468413773</v>
+        <v>0.0810274911449486</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H20">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I20">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J20">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N20">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O20">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P20">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q20">
-        <v>38.51939484062567</v>
+        <v>34.08634977736433</v>
       </c>
       <c r="R20">
-        <v>346.674553565631</v>
+        <v>306.777147996279</v>
       </c>
       <c r="S20">
-        <v>0.0005245142374074386</v>
+        <v>0.0003790082318788186</v>
       </c>
       <c r="T20">
-        <v>0.0005245142374074384</v>
+        <v>0.0003790082318788186</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H21">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I21">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J21">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>104.738514</v>
       </c>
       <c r="O21">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P21">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q21">
-        <v>13.80438485623533</v>
+        <v>12.89986304933133</v>
       </c>
       <c r="R21">
-        <v>124.239463706118</v>
+        <v>116.098767443982</v>
       </c>
       <c r="S21">
-        <v>0.0001879727453067501</v>
+        <v>0.0001434343752774815</v>
       </c>
       <c r="T21">
-        <v>0.00018797274530675</v>
+        <v>0.0001434343752774815</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H22">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I22">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J22">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N22">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O22">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P22">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q22">
-        <v>19.93869359436366</v>
+        <v>15.59893633830345</v>
       </c>
       <c r="R22">
-        <v>179.448242349273</v>
+        <v>140.390427044731</v>
       </c>
       <c r="S22">
-        <v>0.0002715029327126981</v>
+        <v>0.0001734455381519525</v>
       </c>
       <c r="T22">
-        <v>0.000271502932712698</v>
+        <v>0.0001734455381519525</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H23">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I23">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J23">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N23">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O23">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P23">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q23">
-        <v>6.33347968391711</v>
+        <v>5.044091302651221</v>
       </c>
       <c r="R23">
-        <v>57.001317155254</v>
+        <v>45.396821723861</v>
       </c>
       <c r="S23">
-        <v>8.624227561959616E-05</v>
+        <v>5.608556323982513E-05</v>
       </c>
       <c r="T23">
-        <v>8.624227561959613E-05</v>
+        <v>5.608556323982512E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H24">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I24">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J24">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N24">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O24">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P24">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q24">
-        <v>7.753448852984667</v>
+        <v>6.716697062984444</v>
       </c>
       <c r="R24">
-        <v>69.78103967686201</v>
+        <v>60.45027356686</v>
       </c>
       <c r="S24">
-        <v>0.0001055778349900675</v>
+        <v>7.468337016238378E-05</v>
       </c>
       <c r="T24">
-        <v>0.0001055778349900674</v>
+        <v>7.468337016238377E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H25">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I25">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J25">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N25">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O25">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P25">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q25">
-        <v>25.259461909477</v>
+        <v>45.05795140636756</v>
       </c>
       <c r="R25">
-        <v>227.335157185293</v>
+        <v>405.521562657308</v>
       </c>
       <c r="S25">
-        <v>0.0003439552323080154</v>
+        <v>0.0005010021491344788</v>
       </c>
       <c r="T25">
-        <v>0.0003439552323080153</v>
+        <v>0.0005010021491344788</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H26">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I26">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J26">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N26">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O26">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P26">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q26">
-        <v>10237.22770372631</v>
+        <v>11796.08193143297</v>
       </c>
       <c r="R26">
-        <v>92135.04933353678</v>
+        <v>106164.7373828967</v>
       </c>
       <c r="S26">
-        <v>0.1393991703245328</v>
+        <v>0.1311613647436961</v>
       </c>
       <c r="T26">
-        <v>0.1393991703245328</v>
+        <v>0.1311613647436961</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H27">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I27">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J27">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>104.738514</v>
       </c>
       <c r="O27">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P27">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q27">
-        <v>3668.765609321209</v>
+        <v>4464.187055172067</v>
       </c>
       <c r="R27">
-        <v>33018.89048389089</v>
+        <v>40177.68349654861</v>
       </c>
       <c r="S27">
-        <v>0.04995716583195663</v>
+        <v>0.04963757203714006</v>
       </c>
       <c r="T27">
-        <v>0.04995716583195661</v>
+        <v>0.04963757203714006</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H28">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I28">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J28">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N28">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O28">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P28">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q28">
-        <v>5299.069398282752</v>
+        <v>5398.241005319589</v>
       </c>
       <c r="R28">
-        <v>47691.62458454477</v>
+        <v>48584.1690478763</v>
       </c>
       <c r="S28">
-        <v>0.07215682790213394</v>
+        <v>0.06002337569277022</v>
       </c>
       <c r="T28">
-        <v>0.07215682790213392</v>
+        <v>0.06002337569277022</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H29">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I29">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J29">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N29">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O29">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P29">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q29">
-        <v>1683.237079643872</v>
+        <v>1745.581872636144</v>
       </c>
       <c r="R29">
-        <v>15149.13371679485</v>
+        <v>15710.2368537253</v>
       </c>
       <c r="S29">
-        <v>0.02292044869495643</v>
+        <v>0.01940923282981985</v>
       </c>
       <c r="T29">
-        <v>0.02292044869495641</v>
+        <v>0.01940923282981984</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H30">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I30">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J30">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N30">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O30">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P30">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q30">
-        <v>2060.619636565151</v>
+        <v>2324.411659830889</v>
       </c>
       <c r="R30">
-        <v>18545.57672908636</v>
+        <v>20919.704938478</v>
       </c>
       <c r="S30">
-        <v>0.02805922423578262</v>
+        <v>0.02584527704213258</v>
       </c>
       <c r="T30">
-        <v>0.0280592242357826</v>
+        <v>0.02584527704213257</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H31">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I31">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J31">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N31">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O31">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P31">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q31">
-        <v>6713.160066787726</v>
+        <v>15592.96580371871</v>
       </c>
       <c r="R31">
-        <v>60418.44060108953</v>
+        <v>140336.6922334684</v>
       </c>
       <c r="S31">
-        <v>0.09141234039615667</v>
+        <v>0.173379151408546</v>
       </c>
       <c r="T31">
-        <v>0.09141234039615662</v>
+        <v>0.173379151408546</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>30.16156866666667</v>
+        <v>5.570446333333334</v>
       </c>
       <c r="H32">
-        <v>90.484706</v>
+        <v>16.711339</v>
       </c>
       <c r="I32">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="J32">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N32">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O32">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P32">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q32">
-        <v>2938.336128664309</v>
+        <v>513.8904468639097</v>
       </c>
       <c r="R32">
-        <v>26445.02515797878</v>
+        <v>4625.014021775188</v>
       </c>
       <c r="S32">
-        <v>0.04001099031149918</v>
+        <v>0.005713979669792808</v>
       </c>
       <c r="T32">
-        <v>0.04001099031149917</v>
+        <v>0.005713979669792808</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>30.16156866666667</v>
+        <v>5.570446333333334</v>
       </c>
       <c r="H33">
-        <v>90.484706</v>
+        <v>16.711339</v>
       </c>
       <c r="I33">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="J33">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>104.738514</v>
       </c>
       <c r="O33">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P33">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q33">
-        <v>1053.025960685209</v>
+        <v>194.4800904233607</v>
       </c>
       <c r="R33">
-        <v>9477.233646166886</v>
+        <v>1750.320813810246</v>
       </c>
       <c r="S33">
-        <v>0.01433893525649342</v>
+        <v>0.00216243615665585</v>
       </c>
       <c r="T33">
-        <v>0.01433893525649341</v>
+        <v>0.00216243615665585</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>30.16156866666667</v>
+        <v>5.570446333333334</v>
       </c>
       <c r="H34">
-        <v>90.484706</v>
+        <v>16.711339</v>
       </c>
       <c r="I34">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="J34">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N34">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O34">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P34">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q34">
-        <v>1520.963244336752</v>
+        <v>235.1716865504826</v>
       </c>
       <c r="R34">
-        <v>13688.66919903077</v>
+        <v>2116.545178954344</v>
       </c>
       <c r="S34">
-        <v>0.02071078425631563</v>
+        <v>0.00261488853132194</v>
       </c>
       <c r="T34">
-        <v>0.02071078425631562</v>
+        <v>0.002614888531321941</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>30.16156866666667</v>
+        <v>5.570446333333334</v>
       </c>
       <c r="H35">
-        <v>90.484706</v>
+        <v>16.711339</v>
       </c>
       <c r="I35">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="J35">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N35">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O35">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P35">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q35">
-        <v>483.1304399358725</v>
+        <v>76.04540675291477</v>
       </c>
       <c r="R35">
-        <v>4348.173959422852</v>
+        <v>684.4086607762331</v>
       </c>
       <c r="S35">
-        <v>0.006578732488393589</v>
+        <v>0.0008455535821282769</v>
       </c>
       <c r="T35">
-        <v>0.006578732488393587</v>
+        <v>0.0008455535821282769</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>30.16156866666667</v>
+        <v>5.570446333333334</v>
       </c>
       <c r="H36">
-        <v>90.484706</v>
+        <v>16.711339</v>
       </c>
       <c r="I36">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="J36">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N36">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O36">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P36">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q36">
-        <v>591.4485152411507</v>
+        <v>101.2618387621756</v>
       </c>
       <c r="R36">
-        <v>5323.036637170357</v>
+        <v>911.3565488595801</v>
       </c>
       <c r="S36">
-        <v>0.008053687453321245</v>
+        <v>0.001125936649618508</v>
       </c>
       <c r="T36">
-        <v>0.008053687453321242</v>
+        <v>0.001125936649618508</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>30.16156866666667</v>
+        <v>5.570446333333334</v>
       </c>
       <c r="H37">
-        <v>90.484706</v>
+        <v>16.711339</v>
       </c>
       <c r="I37">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="J37">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N37">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O37">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P37">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q37">
-        <v>1926.842044801726</v>
+        <v>679.2998057646805</v>
       </c>
       <c r="R37">
-        <v>17341.57840321554</v>
+        <v>6113.698251882125</v>
       </c>
       <c r="S37">
-        <v>0.02623758991841293</v>
+        <v>0.007553176564228877</v>
       </c>
       <c r="T37">
-        <v>0.02623758991841292</v>
+        <v>0.007553176564228879</v>
       </c>
     </row>
   </sheetData>
